--- a/GUItestDay2/Default.xlsx
+++ b/GUItestDay2/Default.xlsx
@@ -4,14 +4,44 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Action2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>HP ElitePad 1000 G2 Tablet</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>j.zheng@gmail.com</t>
+  </si>
+  <si>
+    <t>emailContactUs_Text</t>
+  </si>
+  <si>
+    <t>subjectTextareaContactUs_Text</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>categoryListboxContactUs_Item</t>
+  </si>
+  <si>
+    <t>productListboxContactUs_Item</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -154,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -162,13 +192,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -467,9 +527,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="1" width="27.2890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.65625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1">
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row>
+      <c s="2" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" t="s">
+        <v>0</v>
+      </c>
+      <c s="2" t="s">
+        <v>2</v>
+      </c>
+      <c s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
@@ -482,7 +594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
